--- a/results/results.xlsx
+++ b/results/results.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R27"/>
+  <dimension ref="A1:R30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,22 +482,22 @@
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>srwa_min</t>
+          <t>CET1_resource</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>gsib</t>
+          <t>T1_resource</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Unnamed: 11</t>
+          <t>total_capital_resource</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>Unnamed: 12</t>
+          <t>TLAC_resource</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
@@ -536,13 +536,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="D2" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="E2" t="n">
-        <v>-3000</v>
+        <v>-5000</v>
       </c>
       <c r="F2" t="n">
         <v>80</v>
@@ -557,29 +557,33 @@
         <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>0.115</v>
-      </c>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
       <c r="M2" t="n">
-        <v>-800000</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>15000</v>
+        <v>23000</v>
       </c>
       <c r="O2" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>(7000, 15000)</t>
+          <t>(10000, 23000)</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="R2" t="n">
-        <v>5000</v>
+        <v>-5000</v>
       </c>
     </row>
     <row r="3">
@@ -592,13 +596,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="D3" t="n">
         <v>2000</v>
       </c>
       <c r="E3" t="n">
-        <v>-500</v>
+        <v>-1000</v>
       </c>
       <c r="F3" t="n">
         <v>150</v>
@@ -613,26 +617,30 @@
         <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>0.115</v>
-      </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
       <c r="M3" t="n">
-        <v>-300000</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="O3" t="n">
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>(1500, 4000)</t>
+          <t>(3000, 6000)</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="R3" t="n">
         <v>2000</v>
@@ -648,13 +656,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>40000</v>
+        <v>50000</v>
       </c>
       <c r="D4" t="n">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="E4" t="n">
-        <v>-10000</v>
+        <v>-15000</v>
       </c>
       <c r="F4" t="n">
         <v>70</v>
@@ -669,29 +677,33 @@
         <v>0.5</v>
       </c>
       <c r="J4" t="n">
-        <v>0.115</v>
-      </c>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
       <c r="M4" t="n">
-        <v>-2800000</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>60000</v>
+        <v>80000</v>
       </c>
       <c r="O4" t="n">
+        <v>35000</v>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>(35000, 80000)</t>
+        </is>
+      </c>
+      <c r="Q4" t="n">
+        <v>80000</v>
+      </c>
+      <c r="R4" t="n">
         <v>30000</v>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>(30000, 60000)</t>
-        </is>
-      </c>
-      <c r="Q4" t="n">
-        <v>60000</v>
-      </c>
-      <c r="R4" t="n">
-        <v>20000</v>
       </c>
     </row>
     <row r="5">
@@ -725,12 +737,16 @@
         <v>0.5</v>
       </c>
       <c r="J5" t="n">
-        <v>0.115</v>
-      </c>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
       <c r="M5" t="n">
-        <v>-1080000</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>23000</v>
@@ -781,12 +797,16 @@
         <v>0.5</v>
       </c>
       <c r="J6" t="n">
-        <v>0.115</v>
-      </c>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
       <c r="M6" t="n">
-        <v>-350000</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>7500</v>
@@ -837,12 +857,16 @@
         <v>0.5</v>
       </c>
       <c r="J7" t="n">
-        <v>0.115</v>
-      </c>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
       <c r="M7" t="n">
-        <v>-1420000</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
         <v>30000</v>
@@ -893,12 +917,16 @@
         <v>0.5</v>
       </c>
       <c r="J8" t="n">
-        <v>0.115</v>
-      </c>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
       <c r="M8" t="n">
-        <v>-750000</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>13500</v>
@@ -928,7 +956,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>50000</v>
+        <v>60000</v>
       </c>
       <c r="D9" t="n">
         <v>20000</v>
@@ -949,26 +977,30 @@
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>0.115</v>
-      </c>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
       <c r="M9" t="n">
-        <v>-27500000</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>70000</v>
+        <v>80000</v>
       </c>
       <c r="O9" t="n">
-        <v>40000</v>
+        <v>50000</v>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>(40000, 70000)</t>
+          <t>(50000, 80000)</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>70000</v>
+        <v>80000</v>
       </c>
       <c r="R9" t="n">
         <v>20000</v>
@@ -1005,12 +1037,16 @@
         <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>0.115</v>
-      </c>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
       <c r="M10" t="n">
-        <v>-6000000</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
         <v>17500</v>
@@ -1061,12 +1097,16 @@
         <v>1.2</v>
       </c>
       <c r="J11" t="n">
-        <v>0.115</v>
-      </c>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
       <c r="M11" t="n">
-        <v>-2200000</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>35000</v>
@@ -1080,10 +1120,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>35000</v>
+        <v>15000</v>
       </c>
       <c r="R11" t="n">
-        <v>15000</v>
+        <v>-5000</v>
       </c>
     </row>
     <row r="12">
@@ -1096,10 +1136,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>40000</v>
+        <v>55000</v>
       </c>
       <c r="D12" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="E12" t="n">
         <v>-8500</v>
@@ -1117,29 +1157,33 @@
         <v>1</v>
       </c>
       <c r="J12" t="n">
-        <v>0.115</v>
-      </c>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
       <c r="M12" t="n">
-        <v>-4000000</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>50000</v>
+        <v>70000</v>
       </c>
       <c r="O12" t="n">
-        <v>31500</v>
+        <v>46500</v>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>(31500, 50000)</t>
+          <t>(46500, 70000)</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>50000</v>
+        <v>51562.09677419356</v>
       </c>
       <c r="R12" t="n">
-        <v>10000</v>
+        <v>-3437.90322580644</v>
       </c>
     </row>
     <row r="13">
@@ -1173,12 +1217,16 @@
         <v>1.15</v>
       </c>
       <c r="J13" t="n">
-        <v>0.115</v>
-      </c>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
       <c r="M13" t="n">
-        <v>-3800000</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
         <v>60000</v>
@@ -1192,10 +1240,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>60000</v>
+        <v>28000</v>
       </c>
       <c r="R13" t="n">
-        <v>20000</v>
+        <v>-12000</v>
       </c>
     </row>
     <row r="14">
@@ -1208,10 +1256,10 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>80000</v>
+        <v>100000</v>
       </c>
       <c r="D14" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="E14" t="n">
         <v>-15000</v>
@@ -1229,29 +1277,33 @@
         <v>1</v>
       </c>
       <c r="J14" t="n">
-        <v>0.115</v>
-      </c>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
       <c r="M14" t="n">
-        <v>-6800000</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>110000</v>
+        <v>140000</v>
       </c>
       <c r="O14" t="n">
-        <v>65000</v>
+        <v>85000</v>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>(65000, 110000)</t>
+          <t>(85000, 140000)</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>110000</v>
+        <v>85000</v>
       </c>
       <c r="R14" t="n">
-        <v>30000</v>
+        <v>-15000</v>
       </c>
     </row>
     <row r="15">
@@ -1285,12 +1337,16 @@
         <v>0.55</v>
       </c>
       <c r="J15" t="n">
-        <v>0.115</v>
-      </c>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
       <c r="M15" t="n">
-        <v>-8960000</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>105000</v>
@@ -1341,12 +1397,16 @@
         <v>0.6</v>
       </c>
       <c r="J16" t="n">
-        <v>0.115</v>
-      </c>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
       <c r="M16" t="n">
-        <v>-6480000</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
         <v>75000</v>
@@ -1397,12 +1457,16 @@
         <v>0.5</v>
       </c>
       <c r="J17" t="n">
-        <v>0.115</v>
-      </c>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
       <c r="M17" t="n">
-        <v>-10500000</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>95000</v>
@@ -1453,12 +1517,16 @@
         <v>0.7</v>
       </c>
       <c r="J18" t="n">
-        <v>0.115</v>
-      </c>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
       <c r="M18" t="n">
-        <v>-4800000</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>34000</v>
@@ -1509,12 +1577,16 @@
         <v>0.05</v>
       </c>
       <c r="J19" t="n">
-        <v>0.115</v>
-      </c>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
       <c r="M19" t="n">
-        <v>-600000</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
         <v>1500</v>
@@ -1565,12 +1637,16 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0.115</v>
-      </c>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
       <c r="M20" t="n">
-        <v>-35000000</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>235000</v>
@@ -1621,12 +1697,16 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.115</v>
-      </c>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
       <c r="M21" t="n">
-        <v>-11100000</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>85000</v>
@@ -1677,12 +1757,16 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0.115</v>
-      </c>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
       <c r="M22" t="n">
-        <v>-15000000</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
         <v>130000</v>
@@ -1733,12 +1817,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0.115</v>
-      </c>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
       <c r="M23" t="n">
-        <v>-500000</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>35000</v>
@@ -1752,10 +1840,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>35000</v>
+        <v>17000</v>
       </c>
       <c r="R23" t="n">
-        <v>15000</v>
+        <v>-3000</v>
       </c>
     </row>
     <row r="24">
@@ -1789,12 +1877,16 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.115</v>
-      </c>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
       <c r="M24" t="n">
-        <v>-9050000</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>125500</v>
@@ -1845,10 +1937,14 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0.115</v>
-      </c>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
       <c r="M25" t="n">
         <v>0</v>
       </c>
@@ -1864,10 +1960,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>62000</v>
+        <v>38000</v>
       </c>
       <c r="R25" t="n">
-        <v>20000</v>
+        <v>-4000</v>
       </c>
     </row>
     <row r="26">
@@ -1901,12 +1997,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0.115</v>
-      </c>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
       <c r="M26" t="n">
-        <v>1060000</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>1053000</v>
@@ -1920,10 +2020,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>133500</v>
+        <v>3000</v>
       </c>
       <c r="R26" t="n">
-        <v>80500</v>
+        <v>-50000</v>
       </c>
     </row>
     <row r="27">
@@ -1954,15 +2054,19 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>-1</v>
-      </c>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
       <c r="M27" t="n">
-        <v>52500000</v>
+        <v>1</v>
       </c>
       <c r="N27" t="n">
         <v>152500</v>
@@ -1976,10 +2080,190 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>60652.58064516129</v>
       </c>
       <c r="R27" t="n">
-        <v>-52500</v>
+        <v>8152.580645161288</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>prefs</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>8000</v>
+      </c>
+      <c r="D28" t="n">
+        <v>13000</v>
+      </c>
+      <c r="E28" t="n">
+        <v>-7000</v>
+      </c>
+      <c r="F28" t="n">
+        <v>-650</v>
+      </c>
+      <c r="G28" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1</v>
+      </c>
+      <c r="N28" t="n">
+        <v>21000</v>
+      </c>
+      <c r="O28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>(1000, 21000)</t>
+        </is>
+      </c>
+      <c r="Q28" t="n">
+        <v>8270.806451612903</v>
+      </c>
+      <c r="R28" t="n">
+        <v>270.8064516129034</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>sub_debt</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>11000</v>
+      </c>
+      <c r="D29" t="n">
+        <v>20000</v>
+      </c>
+      <c r="E29" t="n">
+        <v>-9500</v>
+      </c>
+      <c r="F29" t="n">
+        <v>-200</v>
+      </c>
+      <c r="G29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1</v>
+      </c>
+      <c r="N29" t="n">
+        <v>31000</v>
+      </c>
+      <c r="O29" t="n">
+        <v>1500</v>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>(1500, 31000)</t>
+        </is>
+      </c>
+      <c r="Q29" t="n">
+        <v>11027.74193548387</v>
+      </c>
+      <c r="R29" t="n">
+        <v>27.7419354838712</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>senior_debt</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>43000</v>
+      </c>
+      <c r="D30" t="n">
+        <v>60000</v>
+      </c>
+      <c r="E30" t="n">
+        <v>-40000</v>
+      </c>
+      <c r="F30" t="n">
+        <v>-120</v>
+      </c>
+      <c r="G30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1</v>
+      </c>
+      <c r="N30" t="n">
+        <v>103000</v>
+      </c>
+      <c r="O30" t="n">
+        <v>3000</v>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>(3000, 103000)</t>
+        </is>
+      </c>
+      <c r="Q30" t="n">
+        <v>44110.96774193548</v>
+      </c>
+      <c r="R30" t="n">
+        <v>1110.967741935485</v>
       </c>
     </row>
   </sheetData>

--- a/results/results.xlsx
+++ b/results/results.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R30"/>
+  <dimension ref="A1:J41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,12 +452,12 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>grow</t>
+          <t>balance_change</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>shrink</t>
+          <t>optimal_balance</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -467,62 +467,22 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>A_L</t>
+          <t>total_score</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
+          <t>cet1_contr</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
           <t>a_rwa</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>s_rwa</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>CET1_resource</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>T1_resource</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>total_capital_resource</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>TLAC_resource</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>u_bound</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>l_bound</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>bounds</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>optimal_balance</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>balance_change</t>
         </is>
       </c>
     </row>
@@ -539,51 +499,25 @@
         <v>15000</v>
       </c>
       <c r="D2" t="n">
-        <v>8000</v>
+        <v>-5000</v>
       </c>
       <c r="E2" t="n">
-        <v>-5000</v>
+        <v>10000</v>
       </c>
       <c r="F2" t="n">
         <v>80</v>
       </c>
       <c r="G2" t="n">
+        <v>3</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.0001444796725127423</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="J2" t="n">
         <v>1</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>23000</v>
-      </c>
-      <c r="O2" t="n">
-        <v>10000</v>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>(10000, 23000)</t>
-        </is>
-      </c>
-      <c r="Q2" t="n">
-        <v>10000</v>
-      </c>
-      <c r="R2" t="n">
-        <v>-5000</v>
       </c>
     </row>
     <row r="3">
@@ -602,48 +536,22 @@
         <v>2000</v>
       </c>
       <c r="E3" t="n">
-        <v>-1000</v>
+        <v>6000</v>
       </c>
       <c r="F3" t="n">
         <v>150</v>
       </c>
       <c r="G3" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H3" t="n">
+        <v>3.852791267006462e-05</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J3" t="n">
         <v>1</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>6000</v>
-      </c>
-      <c r="O3" t="n">
-        <v>3000</v>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>(3000, 6000)</t>
-        </is>
-      </c>
-      <c r="Q3" t="n">
-        <v>6000</v>
-      </c>
-      <c r="R3" t="n">
-        <v>2000</v>
       </c>
     </row>
     <row r="4">
@@ -662,48 +570,22 @@
         <v>30000</v>
       </c>
       <c r="E4" t="n">
-        <v>-15000</v>
+        <v>80000</v>
       </c>
       <c r="F4" t="n">
         <v>70</v>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H4" t="n">
+        <v>0.0004815989083758078</v>
+      </c>
+      <c r="I4" t="n">
         <v>0.3</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>0.5</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>80000</v>
-      </c>
-      <c r="O4" t="n">
-        <v>35000</v>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>(35000, 80000)</t>
-        </is>
-      </c>
-      <c r="Q4" t="n">
-        <v>80000</v>
-      </c>
-      <c r="R4" t="n">
-        <v>30000</v>
       </c>
     </row>
     <row r="5">
@@ -722,48 +604,22 @@
         <v>8000</v>
       </c>
       <c r="E5" t="n">
-        <v>-3000</v>
+        <v>23000</v>
       </c>
       <c r="F5" t="n">
         <v>72</v>
       </c>
       <c r="G5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H5" t="n">
+        <v>0.0001444796725127423</v>
+      </c>
+      <c r="I5" t="n">
         <v>0.3</v>
       </c>
-      <c r="I5" t="n">
+      <c r="J5" t="n">
         <v>0.5</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>23000</v>
-      </c>
-      <c r="O5" t="n">
-        <v>12000</v>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>(12000, 23000)</t>
-        </is>
-      </c>
-      <c r="Q5" t="n">
-        <v>23000</v>
-      </c>
-      <c r="R5" t="n">
-        <v>8000</v>
       </c>
     </row>
     <row r="6">
@@ -782,7 +638,7 @@
         <v>2500</v>
       </c>
       <c r="E6" t="n">
-        <v>-2000</v>
+        <v>7500</v>
       </c>
       <c r="F6" t="n">
         <v>70</v>
@@ -791,39 +647,13 @@
         <v>1</v>
       </c>
       <c r="H6" t="n">
+        <v>4.815989083758078e-05</v>
+      </c>
+      <c r="I6" t="n">
         <v>0.3</v>
       </c>
-      <c r="I6" t="n">
+      <c r="J6" t="n">
         <v>0.5</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>7500</v>
-      </c>
-      <c r="O6" t="n">
-        <v>3000</v>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>(3000, 7500)</t>
-        </is>
-      </c>
-      <c r="Q6" t="n">
-        <v>7500</v>
-      </c>
-      <c r="R6" t="n">
-        <v>2500</v>
       </c>
     </row>
     <row r="7">
@@ -842,48 +672,22 @@
         <v>10000</v>
       </c>
       <c r="E7" t="n">
-        <v>-4000</v>
+        <v>30000</v>
       </c>
       <c r="F7" t="n">
         <v>71</v>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H7" t="n">
+        <v>0.0001926395633503231</v>
+      </c>
+      <c r="I7" t="n">
         <v>0.3</v>
       </c>
-      <c r="I7" t="n">
+      <c r="J7" t="n">
         <v>0.5</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>30000</v>
-      </c>
-      <c r="O7" t="n">
-        <v>16000</v>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>(16000, 30000)</t>
-        </is>
-      </c>
-      <c r="Q7" t="n">
-        <v>30000</v>
-      </c>
-      <c r="R7" t="n">
-        <v>10000</v>
       </c>
     </row>
     <row r="8">
@@ -902,48 +706,22 @@
         <v>3500</v>
       </c>
       <c r="E8" t="n">
-        <v>-2000</v>
+        <v>13500</v>
       </c>
       <c r="F8" t="n">
         <v>75</v>
       </c>
       <c r="G8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H8" t="n">
+        <v>9.631978167516155e-05</v>
+      </c>
+      <c r="I8" t="n">
         <v>0.3</v>
       </c>
-      <c r="I8" t="n">
+      <c r="J8" t="n">
         <v>0.5</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>13500</v>
-      </c>
-      <c r="O8" t="n">
-        <v>8000</v>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>(8000, 13500)</t>
-        </is>
-      </c>
-      <c r="Q8" t="n">
-        <v>13500</v>
-      </c>
-      <c r="R8" t="n">
-        <v>3500</v>
       </c>
     </row>
     <row r="9">
@@ -962,48 +740,22 @@
         <v>20000</v>
       </c>
       <c r="E9" t="n">
-        <v>-10000</v>
+        <v>80000</v>
       </c>
       <c r="F9" t="n">
         <v>550</v>
       </c>
       <c r="G9" t="n">
+        <v>12</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.0005779186900509693</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="J9" t="n">
         <v>1</v>
-      </c>
-      <c r="H9" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>1</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>80000</v>
-      </c>
-      <c r="O9" t="n">
-        <v>50000</v>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>(50000, 80000)</t>
-        </is>
-      </c>
-      <c r="Q9" t="n">
-        <v>80000</v>
-      </c>
-      <c r="R9" t="n">
-        <v>20000</v>
       </c>
     </row>
     <row r="10">
@@ -1022,48 +774,22 @@
         <v>2500</v>
       </c>
       <c r="E10" t="n">
-        <v>-2000</v>
+        <v>17500</v>
       </c>
       <c r="F10" t="n">
         <v>400</v>
       </c>
       <c r="G10" t="n">
+        <v>3</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.0001444796725127423</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="J10" t="n">
         <v>1</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="I10" t="n">
-        <v>1</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>17500</v>
-      </c>
-      <c r="O10" t="n">
-        <v>13000</v>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>(13000, 17500)</t>
-        </is>
-      </c>
-      <c r="Q10" t="n">
-        <v>17500</v>
-      </c>
-      <c r="R10" t="n">
-        <v>2500</v>
       </c>
     </row>
     <row r="11">
@@ -1082,48 +808,22 @@
         <v>15000</v>
       </c>
       <c r="E11" t="n">
-        <v>-5000</v>
+        <v>35000</v>
       </c>
       <c r="F11" t="n">
         <v>110</v>
       </c>
       <c r="G11" t="n">
-        <v>1</v>
+        <v>5.7</v>
       </c>
       <c r="H11" t="n">
+        <v>0.0002745113777742104</v>
+      </c>
+      <c r="I11" t="n">
         <v>0.75</v>
       </c>
-      <c r="I11" t="n">
-        <v>1.2</v>
-      </c>
       <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>35000</v>
-      </c>
-      <c r="O11" t="n">
-        <v>15000</v>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>(15000, 35000)</t>
-        </is>
-      </c>
-      <c r="Q11" t="n">
-        <v>15000</v>
-      </c>
-      <c r="R11" t="n">
-        <v>-5000</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="12">
@@ -1139,51 +839,25 @@
         <v>55000</v>
       </c>
       <c r="D12" t="n">
-        <v>15000</v>
+        <v>7706.935483870962</v>
       </c>
       <c r="E12" t="n">
-        <v>-8500</v>
+        <v>62706.93548387096</v>
       </c>
       <c r="F12" t="n">
         <v>100</v>
       </c>
       <c r="G12" t="n">
+        <v>18.425</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.0008873459886824259</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="J12" t="n">
         <v>1</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="I12" t="n">
-        <v>1</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>70000</v>
-      </c>
-      <c r="O12" t="n">
-        <v>46500</v>
-      </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>(46500, 70000)</t>
-        </is>
-      </c>
-      <c r="Q12" t="n">
-        <v>51562.09677419356</v>
-      </c>
-      <c r="R12" t="n">
-        <v>-3437.90322580644</v>
       </c>
     </row>
     <row r="13">
@@ -1199,51 +873,25 @@
         <v>40000</v>
       </c>
       <c r="D13" t="n">
-        <v>20000</v>
+        <v>-12000</v>
       </c>
       <c r="E13" t="n">
-        <v>-12000</v>
+        <v>28000</v>
       </c>
       <c r="F13" t="n">
         <v>95</v>
       </c>
       <c r="G13" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="H13" t="n">
-        <v>0.65</v>
+        <v>0.0007223983625637117</v>
       </c>
       <c r="I13" t="n">
-        <v>1.15</v>
+        <v>0.75</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>60000</v>
-      </c>
-      <c r="O13" t="n">
-        <v>28000</v>
-      </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>(28000, 60000)</t>
-        </is>
-      </c>
-      <c r="Q13" t="n">
-        <v>28000</v>
-      </c>
-      <c r="R13" t="n">
-        <v>-12000</v>
+        <v>1.07</v>
       </c>
     </row>
     <row r="14">
@@ -1259,51 +907,25 @@
         <v>100000</v>
       </c>
       <c r="D14" t="n">
-        <v>40000</v>
+        <v>-15000</v>
       </c>
       <c r="E14" t="n">
-        <v>-15000</v>
+        <v>85000</v>
       </c>
       <c r="F14" t="n">
         <v>85</v>
       </c>
       <c r="G14" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.002094955251434764</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="J14" t="n">
         <v>1</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="I14" t="n">
-        <v>1</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>140000</v>
-      </c>
-      <c r="O14" t="n">
-        <v>85000</v>
-      </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>(85000, 140000)</t>
-        </is>
-      </c>
-      <c r="Q14" t="n">
-        <v>85000</v>
-      </c>
-      <c r="R14" t="n">
-        <v>-15000</v>
       </c>
     </row>
     <row r="15">
@@ -1322,48 +944,22 @@
         <v>25000</v>
       </c>
       <c r="E15" t="n">
-        <v>-10000</v>
+        <v>105000</v>
       </c>
       <c r="F15" t="n">
         <v>112</v>
       </c>
       <c r="G15" t="n">
-        <v>1</v>
+        <v>85.59999999999999</v>
       </c>
       <c r="H15" t="n">
+        <v>0.004122486655696914</v>
+      </c>
+      <c r="I15" t="n">
         <v>0.4</v>
       </c>
-      <c r="I15" t="n">
+      <c r="J15" t="n">
         <v>0.55</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>105000</v>
-      </c>
-      <c r="O15" t="n">
-        <v>70000</v>
-      </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>(70000, 105000)</t>
-        </is>
-      </c>
-      <c r="Q15" t="n">
-        <v>105000</v>
-      </c>
-      <c r="R15" t="n">
-        <v>25000</v>
       </c>
     </row>
     <row r="16">
@@ -1382,48 +978,22 @@
         <v>15000</v>
       </c>
       <c r="E16" t="n">
-        <v>-12000</v>
+        <v>75000</v>
       </c>
       <c r="F16" t="n">
         <v>108</v>
       </c>
       <c r="G16" t="n">
-        <v>1</v>
+        <v>70.5</v>
       </c>
       <c r="H16" t="n">
+        <v>0.003395272304049445</v>
+      </c>
+      <c r="I16" t="n">
         <v>0.5</v>
       </c>
-      <c r="I16" t="n">
-        <v>0.6</v>
-      </c>
       <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>75000</v>
-      </c>
-      <c r="O16" t="n">
-        <v>48000</v>
-      </c>
-      <c r="P16" t="inlineStr">
-        <is>
-          <t>(48000, 75000)</t>
-        </is>
-      </c>
-      <c r="Q16" t="n">
-        <v>75000</v>
-      </c>
-      <c r="R16" t="n">
-        <v>15000</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="17">
@@ -1442,48 +1012,22 @@
         <v>20000</v>
       </c>
       <c r="E17" t="n">
-        <v>-10000</v>
+        <v>95000</v>
       </c>
       <c r="F17" t="n">
         <v>140</v>
       </c>
       <c r="G17" t="n">
-        <v>1</v>
+        <v>147.375</v>
       </c>
       <c r="H17" t="n">
-        <v>0.35</v>
+        <v>0.007097563912188467</v>
       </c>
       <c r="I17" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>95000</v>
-      </c>
-      <c r="O17" t="n">
-        <v>65000</v>
-      </c>
-      <c r="P17" t="inlineStr">
-        <is>
-          <t>(65000, 95000)</t>
-        </is>
-      </c>
-      <c r="Q17" t="n">
-        <v>95000</v>
-      </c>
-      <c r="R17" t="n">
-        <v>20000</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="18">
@@ -1502,48 +1046,22 @@
         <v>4000</v>
       </c>
       <c r="E18" t="n">
-        <v>-2500</v>
+        <v>34000</v>
       </c>
       <c r="F18" t="n">
         <v>160</v>
       </c>
       <c r="G18" t="n">
-        <v>1</v>
+        <v>58.2</v>
       </c>
       <c r="H18" t="n">
+        <v>0.002802905646747201</v>
+      </c>
+      <c r="I18" t="n">
         <v>0.5</v>
       </c>
-      <c r="I18" t="n">
-        <v>0.7</v>
-      </c>
       <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>34000</v>
-      </c>
-      <c r="O18" t="n">
-        <v>27500</v>
-      </c>
-      <c r="P18" t="inlineStr">
-        <is>
-          <t>(27500, 34000)</t>
-        </is>
-      </c>
-      <c r="Q18" t="n">
-        <v>34000</v>
-      </c>
-      <c r="R18" t="n">
-        <v>4000</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="19">
@@ -1552,58 +1070,32 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>payments</t>
+          <t>GIB</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="D19" t="n">
-        <v>500</v>
+        <v>3000</v>
       </c>
       <c r="E19" t="n">
-        <v>-250</v>
+        <v>13000</v>
       </c>
       <c r="F19" t="n">
-        <v>600</v>
+        <v>270</v>
       </c>
       <c r="G19" t="n">
-        <v>1</v>
+        <v>39.25</v>
       </c>
       <c r="H19" t="n">
-        <v>0.05</v>
+        <v>0.001890275715375046</v>
       </c>
       <c r="I19" t="n">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>1500</v>
-      </c>
-      <c r="O19" t="n">
-        <v>750</v>
-      </c>
-      <c r="P19" t="inlineStr">
-        <is>
-          <t>(750, 1500)</t>
-        </is>
-      </c>
-      <c r="Q19" t="n">
-        <v>1500</v>
-      </c>
-      <c r="R19" t="n">
-        <v>500</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="20">
@@ -1612,58 +1104,32 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>consumer_checking</t>
+          <t>payments</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>175000</v>
+        <v>1000</v>
       </c>
       <c r="D20" t="n">
-        <v>60000</v>
+        <v>500</v>
       </c>
       <c r="E20" t="n">
-        <v>-40000</v>
+        <v>1500</v>
       </c>
       <c r="F20" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="G20" t="n">
-        <v>-1</v>
+        <v>11.275</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>0.0005430027691937233</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>235000</v>
-      </c>
-      <c r="O20" t="n">
-        <v>135000</v>
-      </c>
-      <c r="P20" t="inlineStr">
-        <is>
-          <t>(135000, 235000)</t>
-        </is>
-      </c>
-      <c r="Q20" t="n">
-        <v>235000</v>
-      </c>
-      <c r="R20" t="n">
-        <v>60000</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="21">
@@ -1672,58 +1138,32 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>consumer_savings</t>
+          <t>synthetic_arwa_asset</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>25000</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>-10000</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>185</v>
+        <v>100</v>
       </c>
       <c r="G21" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>85000</v>
-      </c>
-      <c r="O21" t="n">
-        <v>50000</v>
-      </c>
-      <c r="P21" t="inlineStr">
-        <is>
-          <t>(50000, 85000)</t>
-        </is>
-      </c>
-      <c r="Q21" t="n">
-        <v>85000</v>
-      </c>
-      <c r="R21" t="n">
-        <v>25000</v>
       </c>
     </row>
     <row r="22">
@@ -1732,23 +1172,23 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>business_op_deposit</t>
+          <t>consumer_checking</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>100000</v>
+        <v>180000</v>
       </c>
       <c r="D22" t="n">
-        <v>30000</v>
+        <v>60000</v>
       </c>
       <c r="E22" t="n">
-        <v>-15000</v>
+        <v>240000</v>
       </c>
       <c r="F22" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="G22" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1758,32 +1198,6 @@
       </c>
       <c r="J22" t="n">
         <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>130000</v>
-      </c>
-      <c r="O22" t="n">
-        <v>85000</v>
-      </c>
-      <c r="P22" t="inlineStr">
-        <is>
-          <t>(85000, 130000)</t>
-        </is>
-      </c>
-      <c r="Q22" t="n">
-        <v>130000</v>
-      </c>
-      <c r="R22" t="n">
-        <v>30000</v>
       </c>
     </row>
     <row r="23">
@@ -1792,23 +1206,23 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>business_nonop_deposit</t>
+          <t>consumer_savings</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>20000</v>
+        <v>63500</v>
       </c>
       <c r="D23" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="E23" t="n">
-        <v>-3000</v>
+        <v>88500</v>
       </c>
       <c r="F23" t="n">
-        <v>25</v>
+        <v>185</v>
       </c>
       <c r="G23" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1818,32 +1232,6 @@
       </c>
       <c r="J23" t="n">
         <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>35000</v>
-      </c>
-      <c r="O23" t="n">
-        <v>17000</v>
-      </c>
-      <c r="P23" t="inlineStr">
-        <is>
-          <t>(17000, 35000)</t>
-        </is>
-      </c>
-      <c r="Q23" t="n">
-        <v>17000</v>
-      </c>
-      <c r="R23" t="n">
-        <v>-3000</v>
       </c>
     </row>
     <row r="24">
@@ -1852,23 +1240,23 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>commercial_op_deposits</t>
+          <t>business_op_deposit_corp</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>90500</v>
+        <v>80000</v>
       </c>
       <c r="D24" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="E24" t="n">
-        <v>-10000</v>
+        <v>110000</v>
       </c>
       <c r="F24" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="G24" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1878,32 +1266,6 @@
       </c>
       <c r="J24" t="n">
         <v>0</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="n">
-        <v>125500</v>
-      </c>
-      <c r="O24" t="n">
-        <v>80500</v>
-      </c>
-      <c r="P24" t="inlineStr">
-        <is>
-          <t>(80500, 125500)</t>
-        </is>
-      </c>
-      <c r="Q24" t="n">
-        <v>125500</v>
-      </c>
-      <c r="R24" t="n">
-        <v>35000</v>
       </c>
     </row>
     <row r="25">
@@ -1912,58 +1274,32 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>commercial_nonop_deposit</t>
+          <t>business_op_deposit_fin</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>42000</v>
+        <v>20000</v>
       </c>
       <c r="D25" t="n">
-        <v>20000</v>
+        <v>6000</v>
       </c>
       <c r="E25" t="n">
-        <v>-4000</v>
+        <v>26000</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="G25" t="n">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>0.0004815989083758078</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>62000</v>
-      </c>
-      <c r="O25" t="n">
-        <v>38000</v>
-      </c>
-      <c r="P25" t="inlineStr">
-        <is>
-          <t>(38000, 62000)</t>
-        </is>
-      </c>
-      <c r="Q25" t="n">
-        <v>38000</v>
-      </c>
-      <c r="R25" t="n">
-        <v>-4000</v>
       </c>
     </row>
     <row r="26">
@@ -1972,23 +1308,23 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>commercial_paper</t>
+          <t>business_nonop_deposit_corp</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>53000</v>
+        <v>15000</v>
       </c>
       <c r="D26" t="n">
-        <v>1000000</v>
+        <v>15000</v>
       </c>
       <c r="E26" t="n">
-        <v>-50000</v>
+        <v>30000</v>
       </c>
       <c r="F26" t="n">
-        <v>-20</v>
+        <v>25</v>
       </c>
       <c r="G26" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1998,32 +1334,6 @@
       </c>
       <c r="J26" t="n">
         <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>1053000</v>
-      </c>
-      <c r="O26" t="n">
-        <v>3000</v>
-      </c>
-      <c r="P26" t="inlineStr">
-        <is>
-          <t>(3000, 1053000)</t>
-        </is>
-      </c>
-      <c r="Q26" t="n">
-        <v>3000</v>
-      </c>
-      <c r="R26" t="n">
-        <v>-50000</v>
       </c>
     </row>
     <row r="27">
@@ -2032,58 +1342,32 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>equity</t>
+          <t>business_nonop_deposit_fin</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>52500</v>
+        <v>5000</v>
       </c>
       <c r="D27" t="n">
-        <v>100000</v>
+        <v>-1500</v>
       </c>
       <c r="E27" t="n">
-        <v>-52500</v>
+        <v>3500</v>
       </c>
       <c r="F27" t="n">
-        <v>-1000</v>
+        <v>20</v>
       </c>
       <c r="G27" t="n">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>0.0001203997270939519</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>1</v>
-      </c>
-      <c r="K27" t="n">
-        <v>1</v>
-      </c>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="n">
-        <v>152500</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
-      </c>
-      <c r="P27" t="inlineStr">
-        <is>
-          <t>(0, 152500)</t>
-        </is>
-      </c>
-      <c r="Q27" t="n">
-        <v>60652.58064516129</v>
-      </c>
-      <c r="R27" t="n">
-        <v>8152.580645161288</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2092,23 +1376,23 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>prefs</t>
+          <t>commercial_op_deposits_dom_corp</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>8000</v>
+        <v>40000</v>
       </c>
       <c r="D28" t="n">
-        <v>13000</v>
+        <v>35000</v>
       </c>
       <c r="E28" t="n">
-        <v>-7000</v>
+        <v>75000</v>
       </c>
       <c r="F28" t="n">
-        <v>-650</v>
+        <v>100</v>
       </c>
       <c r="G28" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2118,32 +1402,6 @@
       </c>
       <c r="J28" t="n">
         <v>0</v>
-      </c>
-      <c r="K28" t="n">
-        <v>1</v>
-      </c>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="n">
-        <v>21000</v>
-      </c>
-      <c r="O28" t="n">
-        <v>1000</v>
-      </c>
-      <c r="P28" t="inlineStr">
-        <is>
-          <t>(1000, 21000)</t>
-        </is>
-      </c>
-      <c r="Q28" t="n">
-        <v>8270.806451612903</v>
-      </c>
-      <c r="R28" t="n">
-        <v>270.8064516129034</v>
       </c>
     </row>
     <row r="29">
@@ -2152,58 +1410,32 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>sub_debt</t>
+          <t>commercial_op_deposits_dom_fin</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>11000</v>
+        <v>25000</v>
       </c>
       <c r="D29" t="n">
-        <v>20000</v>
+        <v>7000</v>
       </c>
       <c r="E29" t="n">
-        <v>-9500</v>
+        <v>32000</v>
       </c>
       <c r="F29" t="n">
-        <v>-200</v>
+        <v>75</v>
       </c>
       <c r="G29" t="n">
-        <v>-1</v>
+        <v>12.5</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>0.0006019986354697597</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="n">
-        <v>31000</v>
-      </c>
-      <c r="O29" t="n">
-        <v>1500</v>
-      </c>
-      <c r="P29" t="inlineStr">
-        <is>
-          <t>(1500, 31000)</t>
-        </is>
-      </c>
-      <c r="Q29" t="n">
-        <v>11027.74193548387</v>
-      </c>
-      <c r="R29" t="n">
-        <v>27.7419354838712</v>
       </c>
     </row>
     <row r="30">
@@ -2212,58 +1444,406 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
+          <t>commercial_op_deposits_intl_corp</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>17000</v>
+      </c>
+      <c r="D30" t="n">
+        <v>5000</v>
+      </c>
+      <c r="E30" t="n">
+        <v>22000</v>
+      </c>
+      <c r="F30" t="n">
+        <v>95</v>
+      </c>
+      <c r="G30" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.0004093590721194366</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>commercial_op_deposits_intl_fin</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>8500</v>
+      </c>
+      <c r="D31" t="n">
+        <v>4000</v>
+      </c>
+      <c r="E31" t="n">
+        <v>12500</v>
+      </c>
+      <c r="F31" t="n">
+        <v>70</v>
+      </c>
+      <c r="G31" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.0004093590721194366</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>commercial_nonop_deposits_dom_corp</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>20000</v>
+      </c>
+      <c r="D32" t="n">
+        <v>-4000</v>
+      </c>
+      <c r="E32" t="n">
+        <v>16000</v>
+      </c>
+      <c r="F32" t="n">
+        <v>10</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>commercial_nonop_deposits_dom_fin</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>12000</v>
+      </c>
+      <c r="D33" t="n">
+        <v>-2500</v>
+      </c>
+      <c r="E33" t="n">
+        <v>9500</v>
+      </c>
+      <c r="F33" t="n">
+        <v>5</v>
+      </c>
+      <c r="G33" t="n">
+        <v>6</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.0002889593450254847</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>commercial_nonop_deposits_intl_corp</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>7000</v>
+      </c>
+      <c r="D34" t="n">
+        <v>-2000</v>
+      </c>
+      <c r="E34" t="n">
+        <v>5000</v>
+      </c>
+      <c r="F34" t="n">
+        <v>10</v>
+      </c>
+      <c r="G34" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.0001685596179315327</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>commercial_nonop_deposits_intl_fin</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>3000</v>
+      </c>
+      <c r="D35" t="n">
+        <v>-1000</v>
+      </c>
+      <c r="E35" t="n">
+        <v>2000</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>3</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.0001444796725127423</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>commercial_paper</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>53000</v>
+      </c>
+      <c r="D36" t="n">
+        <v>-50000</v>
+      </c>
+      <c r="E36" t="n">
+        <v>3000</v>
+      </c>
+      <c r="F36" t="n">
+        <v>-20</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>synthetic_arwa_liability</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>5</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>equity</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>54000</v>
+      </c>
+      <c r="D38" t="n">
+        <v>7945.612903225818</v>
+      </c>
+      <c r="E38" t="n">
+        <v>61945.61290322582</v>
+      </c>
+      <c r="F38" t="n">
+        <v>-1000</v>
+      </c>
+      <c r="G38" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.0007801902315688086</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>prefs</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>8000</v>
+      </c>
+      <c r="D39" t="n">
+        <v>2208.011290322567</v>
+      </c>
+      <c r="E39" t="n">
+        <v>10208.01129032257</v>
+      </c>
+      <c r="F39" t="n">
+        <v>-650</v>
+      </c>
+      <c r="G39" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.0001155837380101939</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>sub_debt</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>11000</v>
+      </c>
+      <c r="D40" t="n">
+        <v>-1498.04354838709</v>
+      </c>
+      <c r="E40" t="n">
+        <v>9501.95645161291</v>
+      </c>
+      <c r="F40" t="n">
+        <v>-200</v>
+      </c>
+      <c r="G40" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.0001589276397640166</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
           <t>senior_debt</t>
         </is>
       </c>
-      <c r="C30" t="n">
+      <c r="C41" t="n">
         <v>43000</v>
       </c>
-      <c r="D30" t="n">
-        <v>60000</v>
-      </c>
-      <c r="E30" t="n">
-        <v>-40000</v>
-      </c>
-      <c r="F30" t="n">
+      <c r="D41" t="n">
+        <v>2051.354838709674</v>
+      </c>
+      <c r="E41" t="n">
+        <v>45051.35483870967</v>
+      </c>
+      <c r="F41" t="n">
         <v>-120</v>
       </c>
-      <c r="G30" t="n">
-        <v>-1</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0</v>
-      </c>
-      <c r="L30" t="n">
-        <v>0</v>
-      </c>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="n">
-        <v>103000</v>
-      </c>
-      <c r="O30" t="n">
-        <v>3000</v>
-      </c>
-      <c r="P30" t="inlineStr">
-        <is>
-          <t>(3000, 103000)</t>
-        </is>
-      </c>
-      <c r="Q30" t="n">
-        <v>44110.96774193548</v>
-      </c>
-      <c r="R30" t="n">
-        <v>1110.967741935485</v>
+      <c r="G41" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.0006212625918047919</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
